--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value800.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value800.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.511507056663921</v>
+        <v>1.338145017623901</v>
       </c>
       <c r="B1">
-        <v>3.249723042733202</v>
+        <v>1.993512153625488</v>
       </c>
       <c r="C1">
-        <v>2.566863400439551</v>
+        <v>3.806264877319336</v>
       </c>
       <c r="D1">
-        <v>2.366759879877228</v>
+        <v>0.9684718251228333</v>
       </c>
       <c r="E1">
-        <v>1.925448155269747</v>
+        <v>0.7653455138206482</v>
       </c>
     </row>
   </sheetData>
